--- a/data/pca/factorExposure/factorExposure_2017-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01718481537914531</v>
+        <v>0.009871916094289068</v>
       </c>
       <c r="C2">
-        <v>-0.01637355382276369</v>
+        <v>-0.04082201264202662</v>
       </c>
       <c r="D2">
-        <v>0.03153620336793649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02959076738316729</v>
+      </c>
+      <c r="E2">
+        <v>-0.03810917699907319</v>
+      </c>
+      <c r="F2">
+        <v>0.004562299071519041</v>
+      </c>
+      <c r="G2">
+        <v>0.1042657676256734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02147722100551933</v>
+        <v>0.04142741870493258</v>
       </c>
       <c r="C3">
-        <v>0.007993715598623359</v>
+        <v>-0.10167664098309</v>
       </c>
       <c r="D3">
-        <v>0.104734407519715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01764250088744527</v>
+      </c>
+      <c r="E3">
+        <v>-0.1010376307936157</v>
+      </c>
+      <c r="F3">
+        <v>0.001848561497199868</v>
+      </c>
+      <c r="G3">
+        <v>0.1635479447415595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02440664751814553</v>
+        <v>0.05617529208918513</v>
       </c>
       <c r="C4">
-        <v>-0.007156624610221161</v>
+        <v>-0.06904779815443435</v>
       </c>
       <c r="D4">
-        <v>0.08358071872811622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0245555966148507</v>
+      </c>
+      <c r="E4">
+        <v>-0.03191080054861296</v>
+      </c>
+      <c r="F4">
+        <v>0.01031658229893134</v>
+      </c>
+      <c r="G4">
+        <v>0.099183819734926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01309724851436883</v>
+        <v>0.03658591485343349</v>
       </c>
       <c r="C6">
-        <v>-0.008545480192106681</v>
+        <v>-0.05062052990773561</v>
       </c>
       <c r="D6">
-        <v>0.0768439769474909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01710934324382832</v>
+      </c>
+      <c r="E6">
+        <v>-0.03799891434251555</v>
+      </c>
+      <c r="F6">
+        <v>0.005905743830041585</v>
+      </c>
+      <c r="G6">
+        <v>0.0861188819537136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005535583098645278</v>
+        <v>0.02080094478078461</v>
       </c>
       <c r="C7">
-        <v>-0.0109844354095282</v>
+        <v>-0.03936968258337666</v>
       </c>
       <c r="D7">
-        <v>0.03622958152912495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01400420456414131</v>
+      </c>
+      <c r="E7">
+        <v>-0.006865627719172988</v>
+      </c>
+      <c r="F7">
+        <v>-0.005072872682893631</v>
+      </c>
+      <c r="G7">
+        <v>0.1221088610600699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001825545397547385</v>
+        <v>0.002862203436786545</v>
       </c>
       <c r="C8">
-        <v>-0.001341491175752251</v>
+        <v>-0.02445446347521821</v>
       </c>
       <c r="D8">
-        <v>-0.002278593335220806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003797602927466474</v>
+      </c>
+      <c r="E8">
+        <v>-0.02951869175008776</v>
+      </c>
+      <c r="F8">
+        <v>0.004359879821008383</v>
+      </c>
+      <c r="G8">
+        <v>0.06943184477437171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01461940288268179</v>
+        <v>0.03438050267629451</v>
       </c>
       <c r="C9">
-        <v>-0.005500595621077495</v>
+        <v>-0.05068596316104779</v>
       </c>
       <c r="D9">
-        <v>0.06157553999672279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01638508925719524</v>
+      </c>
+      <c r="E9">
+        <v>-0.02208201379667617</v>
+      </c>
+      <c r="F9">
+        <v>0.006268011565853278</v>
+      </c>
+      <c r="G9">
+        <v>0.09949341859069838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1200755050588401</v>
+        <v>0.09919483716884595</v>
       </c>
       <c r="C10">
-        <v>0.1373878226490204</v>
+        <v>0.1837876085208217</v>
       </c>
       <c r="D10">
-        <v>-0.09955028014884489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01568200891269413</v>
+      </c>
+      <c r="E10">
+        <v>-0.02025156035659465</v>
+      </c>
+      <c r="F10">
+        <v>-0.0220801177005045</v>
+      </c>
+      <c r="G10">
+        <v>0.05629336712347057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>9.74092543167726e-05</v>
+        <v>0.03434557414891477</v>
       </c>
       <c r="C11">
-        <v>-0.00157567479789833</v>
+        <v>-0.05308923687578703</v>
       </c>
       <c r="D11">
-        <v>0.05280131753347148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002520110063276139</v>
+      </c>
+      <c r="E11">
+        <v>-0.01762981225566996</v>
+      </c>
+      <c r="F11">
+        <v>0.01979433874058342</v>
+      </c>
+      <c r="G11">
+        <v>0.09125638251432784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004092706593166802</v>
+        <v>0.03605219814483442</v>
       </c>
       <c r="C12">
-        <v>-0.004229484067176761</v>
+        <v>-0.04783792032463306</v>
       </c>
       <c r="D12">
-        <v>0.0463964180401489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006599917867389141</v>
+      </c>
+      <c r="E12">
+        <v>-0.009941844753722015</v>
+      </c>
+      <c r="F12">
+        <v>0.0007814269445423001</v>
+      </c>
+      <c r="G12">
+        <v>0.08313239962608114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01990155495156078</v>
+        <v>0.0152690976535573</v>
       </c>
       <c r="C13">
-        <v>-0.009862036570554452</v>
+        <v>-0.04180502803051482</v>
       </c>
       <c r="D13">
-        <v>0.03502778821244923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02656656060804658</v>
+      </c>
+      <c r="E13">
+        <v>-0.03803097966633462</v>
+      </c>
+      <c r="F13">
+        <v>0.003656857085056291</v>
+      </c>
+      <c r="G13">
+        <v>0.1404110229934863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.004896496126145345</v>
+        <v>0.008143889237026655</v>
       </c>
       <c r="C14">
-        <v>-0.004993324926757466</v>
+        <v>-0.02826319819386605</v>
       </c>
       <c r="D14">
-        <v>0.01964858895122002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01018138490730789</v>
+      </c>
+      <c r="E14">
+        <v>-0.008085677468925195</v>
+      </c>
+      <c r="F14">
+        <v>-0.008379219180452455</v>
+      </c>
+      <c r="G14">
+        <v>0.1061845853992211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.003375010247627575</v>
+        <v>0.03290670907959803</v>
       </c>
       <c r="C16">
-        <v>0.002346918683448759</v>
+        <v>-0.04608965849267125</v>
       </c>
       <c r="D16">
-        <v>0.04142264451863714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002018617853859313</v>
+      </c>
+      <c r="E16">
+        <v>-0.01582231318805458</v>
+      </c>
+      <c r="F16">
+        <v>0.001187888583442245</v>
+      </c>
+      <c r="G16">
+        <v>0.09311088147413861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01239309757072498</v>
+        <v>0.02305758174904467</v>
       </c>
       <c r="C19">
-        <v>-0.005911670656585086</v>
+        <v>-0.05127747990421328</v>
       </c>
       <c r="D19">
-        <v>0.03965697445715106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01922731162285384</v>
+      </c>
+      <c r="E19">
+        <v>-0.07994770650914086</v>
+      </c>
+      <c r="F19">
+        <v>0.01863673152496701</v>
+      </c>
+      <c r="G19">
+        <v>0.1390716329806645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006289081369351264</v>
+        <v>0.01519168486865566</v>
       </c>
       <c r="C20">
-        <v>-0.008903274434488443</v>
+        <v>-0.04189531381672563</v>
       </c>
       <c r="D20">
-        <v>0.03481034820386411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01429312022243251</v>
+      </c>
+      <c r="E20">
+        <v>-0.03865636265773618</v>
+      </c>
+      <c r="F20">
+        <v>-0.01302569324006775</v>
+      </c>
+      <c r="G20">
+        <v>0.1108181587890584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01551093896082049</v>
+        <v>0.01224835698364757</v>
       </c>
       <c r="C21">
-        <v>-0.002439198344367319</v>
+        <v>-0.03801725361376198</v>
       </c>
       <c r="D21">
-        <v>0.02369820201688594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01922088698047403</v>
+      </c>
+      <c r="E21">
+        <v>-0.05032184770239794</v>
+      </c>
+      <c r="F21">
+        <v>-0.001560219788494137</v>
+      </c>
+      <c r="G21">
+        <v>0.1383726877778491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001462141763200278</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002221671981367678</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006323747366765749</v>
+      </c>
+      <c r="E22">
+        <v>-0.004326097114698918</v>
+      </c>
+      <c r="F22">
+        <v>0.001717274877911104</v>
+      </c>
+      <c r="G22">
+        <v>0.005919295994688309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001467688232981104</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002338597224569872</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.000631213947401962</v>
+      </c>
+      <c r="E23">
+        <v>-0.004313216233887323</v>
+      </c>
+      <c r="F23">
+        <v>0.00172344055772844</v>
+      </c>
+      <c r="G23">
+        <v>0.005812038597482146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0005484708595976699</v>
+        <v>0.02815651788521064</v>
       </c>
       <c r="C24">
-        <v>-0.008615962020689179</v>
+        <v>-0.05075416566066854</v>
       </c>
       <c r="D24">
-        <v>0.04558201487982186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007349617541825725</v>
+      </c>
+      <c r="E24">
+        <v>-0.01285444477278401</v>
+      </c>
+      <c r="F24">
+        <v>0.01134666739699463</v>
+      </c>
+      <c r="G24">
+        <v>0.09161046916711675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0149660185876219</v>
+        <v>0.04221196061090417</v>
       </c>
       <c r="C25">
-        <v>0.0002302898892405202</v>
+        <v>-0.05783214228739815</v>
       </c>
       <c r="D25">
-        <v>0.05830189305713152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01136939879618213</v>
+      </c>
+      <c r="E25">
+        <v>-0.005021175827718682</v>
+      </c>
+      <c r="F25">
+        <v>0.004813341806320815</v>
+      </c>
+      <c r="G25">
+        <v>0.1000953411398234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01747946571160382</v>
+        <v>0.01389661616853601</v>
       </c>
       <c r="C26">
-        <v>-0.01339640298550816</v>
+        <v>-0.01284290655596683</v>
       </c>
       <c r="D26">
-        <v>0.0006200153988255286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02420702380548373</v>
+      </c>
+      <c r="E26">
+        <v>-0.009138925115306866</v>
+      </c>
+      <c r="F26">
+        <v>-0.008567595749826821</v>
+      </c>
+      <c r="G26">
+        <v>0.0821664243939975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1688896461833581</v>
+        <v>0.1260603831807025</v>
       </c>
       <c r="C28">
-        <v>0.1715416072644666</v>
+        <v>0.2408637640016173</v>
       </c>
       <c r="D28">
-        <v>-0.1270841566293265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006675090317249964</v>
+      </c>
+      <c r="E28">
+        <v>-0.009543004917498342</v>
+      </c>
+      <c r="F28">
+        <v>-0.01544661440709226</v>
+      </c>
+      <c r="G28">
+        <v>0.04955867013960898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01020007736011604</v>
+        <v>0.008791758969412916</v>
       </c>
       <c r="C29">
-        <v>0.001166673072186596</v>
+        <v>-0.02260326139896614</v>
       </c>
       <c r="D29">
-        <v>0.01944645816658394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009286133913104871</v>
+      </c>
+      <c r="E29">
+        <v>-0.00555929945806409</v>
+      </c>
+      <c r="F29">
+        <v>-0.01516137073487415</v>
+      </c>
+      <c r="G29">
+        <v>0.09715125308249802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01327299850271034</v>
+        <v>0.04136117753587374</v>
       </c>
       <c r="C30">
-        <v>-0.02185116749709817</v>
+        <v>-0.06908918358431151</v>
       </c>
       <c r="D30">
-        <v>0.100494870497578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02896303944367785</v>
+      </c>
+      <c r="E30">
+        <v>-0.06079470478304613</v>
+      </c>
+      <c r="F30">
+        <v>0.04307682782605455</v>
+      </c>
+      <c r="G30">
+        <v>0.1340618095659557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02287291912600478</v>
+        <v>0.05299415162124625</v>
       </c>
       <c r="C31">
-        <v>0.0171332053451953</v>
+        <v>-0.03815683989635149</v>
       </c>
       <c r="D31">
-        <v>0.03231415364772669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003834715147575191</v>
+      </c>
+      <c r="E31">
+        <v>-0.0002439742470301207</v>
+      </c>
+      <c r="F31">
+        <v>-0.04037930935063513</v>
+      </c>
+      <c r="G31">
+        <v>0.09862854526914597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002076601208794145</v>
+        <v>0.0026582798103651</v>
       </c>
       <c r="C32">
-        <v>0.01425657400868477</v>
+        <v>-0.02309372719925613</v>
       </c>
       <c r="D32">
-        <v>0.006407352809777891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002972278316375262</v>
+      </c>
+      <c r="E32">
+        <v>-0.03417566624498645</v>
+      </c>
+      <c r="F32">
+        <v>0.0418682988922654</v>
+      </c>
+      <c r="G32">
+        <v>0.08789619088566698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.009588806399212337</v>
+        <v>0.02841463334271177</v>
       </c>
       <c r="C33">
-        <v>-0.006398526402415504</v>
+        <v>-0.0505661989059609</v>
       </c>
       <c r="D33">
-        <v>0.04249003125027795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01570608425198129</v>
+      </c>
+      <c r="E33">
+        <v>-0.04309787193233486</v>
+      </c>
+      <c r="F33">
+        <v>0.01490287653076045</v>
+      </c>
+      <c r="G33">
+        <v>0.1619725172498732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004377007125731972</v>
+        <v>0.03975451863468703</v>
       </c>
       <c r="C34">
-        <v>0.01257454133641641</v>
+        <v>-0.05920624287008769</v>
       </c>
       <c r="D34">
-        <v>0.05667395472371303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004431010377124719</v>
+      </c>
+      <c r="E34">
+        <v>-0.007983190580008858</v>
+      </c>
+      <c r="F34">
+        <v>0.02049389527744192</v>
+      </c>
+      <c r="G34">
+        <v>0.09532550483708919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01614582846990594</v>
+        <v>0.01633350903395418</v>
       </c>
       <c r="C36">
-        <v>0.001890319103750659</v>
+        <v>-0.009654377323493989</v>
       </c>
       <c r="D36">
-        <v>0.005317800818708763</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01255248341131114</v>
+      </c>
+      <c r="E36">
+        <v>-0.008719120795894549</v>
+      </c>
+      <c r="F36">
+        <v>-0.008213751689448757</v>
+      </c>
+      <c r="G36">
+        <v>0.09178469158178833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01056876946260922</v>
+        <v>0.03121183725385138</v>
       </c>
       <c r="C38">
-        <v>0.0218502772477772</v>
+        <v>-0.03045061360918721</v>
       </c>
       <c r="D38">
-        <v>0.0405475709576483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007395019450663267</v>
+      </c>
+      <c r="E38">
+        <v>-0.007673406119643444</v>
+      </c>
+      <c r="F38">
+        <v>-0.01863395547253036</v>
+      </c>
+      <c r="G38">
+        <v>0.08652301870937354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.009111319704379608</v>
+        <v>0.03638826041596725</v>
       </c>
       <c r="C39">
-        <v>-0.02336092476620799</v>
+        <v>-0.0798564081736618</v>
       </c>
       <c r="D39">
-        <v>0.09943771445897299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01183398541388104</v>
+      </c>
+      <c r="E39">
+        <v>-0.0296008806463184</v>
+      </c>
+      <c r="F39">
+        <v>0.02198395717226677</v>
+      </c>
+      <c r="G39">
+        <v>0.09089980825570509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01575170113743007</v>
+        <v>0.01319794971969859</v>
       </c>
       <c r="C40">
-        <v>0.001405798288113272</v>
+        <v>-0.03912063768577219</v>
       </c>
       <c r="D40">
-        <v>0.03578871942213141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01477458278807376</v>
+      </c>
+      <c r="E40">
+        <v>-0.03257278214850588</v>
+      </c>
+      <c r="F40">
+        <v>-0.008271412901697726</v>
+      </c>
+      <c r="G40">
+        <v>0.1239288361045225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01505742671506019</v>
+        <v>0.02054116750885491</v>
       </c>
       <c r="C41">
-        <v>0.0116838098405349</v>
+        <v>-0.002638476907759515</v>
       </c>
       <c r="D41">
-        <v>-0.009549300880720252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00450259498888575</v>
+      </c>
+      <c r="E41">
+        <v>-0.008016086246426652</v>
+      </c>
+      <c r="F41">
+        <v>-0.01562110357699775</v>
+      </c>
+      <c r="G41">
+        <v>0.08580238349990089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.05703759390155484</v>
+        <v>0.009453836058838783</v>
       </c>
       <c r="C42">
-        <v>-0.07613697755582649</v>
+        <v>-0.03291149702237957</v>
       </c>
       <c r="D42">
-        <v>0.1453117569602501</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08902494476864638</v>
+      </c>
+      <c r="E42">
+        <v>-0.01948353251230204</v>
+      </c>
+      <c r="F42">
+        <v>-0.04381789401729932</v>
+      </c>
+      <c r="G42">
+        <v>-0.02300116693689253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01586725731301069</v>
+        <v>0.0352034542420028</v>
       </c>
       <c r="C43">
-        <v>0.01141178386847911</v>
+        <v>-0.01854022531839692</v>
       </c>
       <c r="D43">
-        <v>-0.009808394408387978</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005894436678921975</v>
+      </c>
+      <c r="E43">
+        <v>-0.02079559961089258</v>
+      </c>
+      <c r="F43">
+        <v>-0.007707978332183753</v>
+      </c>
+      <c r="G43">
+        <v>0.1191352123899038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0009439765299369495</v>
+        <v>0.01328031442320135</v>
       </c>
       <c r="C44">
-        <v>-0.003405274249631838</v>
+        <v>-0.05958753614568581</v>
       </c>
       <c r="D44">
-        <v>0.05261714465096259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007073908627798242</v>
+      </c>
+      <c r="E44">
+        <v>-0.02553712328417929</v>
+      </c>
+      <c r="F44">
+        <v>-0.004419535729182306</v>
+      </c>
+      <c r="G44">
+        <v>0.110708528181179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009640022821212395</v>
+        <v>0.008309027921750029</v>
       </c>
       <c r="C46">
-        <v>-0.003539485138978957</v>
+        <v>-0.01402658840931914</v>
       </c>
       <c r="D46">
-        <v>-0.006418406247871889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259797995524006</v>
+      </c>
+      <c r="E46">
+        <v>-0.001788855183883244</v>
+      </c>
+      <c r="F46">
+        <v>-0.01598964050437913</v>
+      </c>
+      <c r="G46">
+        <v>0.1064381776876946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01818740337041024</v>
+        <v>0.0775875196016763</v>
       </c>
       <c r="C47">
-        <v>0.02133606358589918</v>
+        <v>-0.06895763184290708</v>
       </c>
       <c r="D47">
-        <v>0.07474218566786067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004794870808316928</v>
+      </c>
+      <c r="E47">
+        <v>0.005087177227857004</v>
+      </c>
+      <c r="F47">
+        <v>-0.05348195812035322</v>
+      </c>
+      <c r="G47">
+        <v>0.0847041896199401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008872552653129737</v>
+        <v>0.0187753209381877</v>
       </c>
       <c r="C48">
-        <v>0.007847667054322638</v>
+        <v>-0.01308065659343755</v>
       </c>
       <c r="D48">
-        <v>0.01691410762718854</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002298127441936734</v>
+      </c>
+      <c r="E48">
+        <v>-0.005183611504972987</v>
+      </c>
+      <c r="F48">
+        <v>-0.0197391493047781</v>
+      </c>
+      <c r="G48">
+        <v>0.09687823262738657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02685548240261688</v>
+        <v>0.07550636692491051</v>
       </c>
       <c r="C50">
-        <v>0.02833722904675873</v>
+        <v>-0.07192922528058621</v>
       </c>
       <c r="D50">
-        <v>0.07026382139963792</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00224517932401058</v>
+      </c>
+      <c r="E50">
+        <v>0.002492737721074161</v>
+      </c>
+      <c r="F50">
+        <v>-0.05586360651356808</v>
+      </c>
+      <c r="G50">
+        <v>0.09251288888167535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006669516853556621</v>
+        <v>0.01417500928596758</v>
       </c>
       <c r="C51">
-        <v>-0.001473072781158355</v>
+        <v>-0.0363709765999442</v>
       </c>
       <c r="D51">
-        <v>0.01901706823300909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01069018748508452</v>
+      </c>
+      <c r="E51">
+        <v>-0.0259585276839869</v>
+      </c>
+      <c r="F51">
+        <v>0.02362766425798214</v>
+      </c>
+      <c r="G51">
+        <v>0.1236940476226711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.02956151689198836</v>
+        <v>0.08158488521215221</v>
       </c>
       <c r="C53">
-        <v>0.03045819513016488</v>
+        <v>-0.08527887297962217</v>
       </c>
       <c r="D53">
-        <v>0.1283355187914611</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003461704870353877</v>
+      </c>
+      <c r="E53">
+        <v>0.02417358332808751</v>
+      </c>
+      <c r="F53">
+        <v>-0.0652629573746325</v>
+      </c>
+      <c r="G53">
+        <v>0.09210073064055048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01351224751943837</v>
+        <v>0.03154508314804336</v>
       </c>
       <c r="C54">
-        <v>0.01901144974267656</v>
+        <v>-0.01911752296433732</v>
       </c>
       <c r="D54">
-        <v>-0.00243420700632513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001258180718391184</v>
+      </c>
+      <c r="E54">
+        <v>-0.01830616531011014</v>
+      </c>
+      <c r="F54">
+        <v>-0.006363482380892245</v>
+      </c>
+      <c r="G54">
+        <v>0.1069779146957814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01620461581147218</v>
+        <v>0.07182290294680015</v>
       </c>
       <c r="C55">
-        <v>0.01769201378332434</v>
+        <v>-0.06819183288925289</v>
       </c>
       <c r="D55">
-        <v>0.1005544249281752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005081218769915226</v>
+      </c>
+      <c r="E55">
+        <v>0.0222682444831067</v>
+      </c>
+      <c r="F55">
+        <v>-0.06491373943577591</v>
+      </c>
+      <c r="G55">
+        <v>0.06922709652595951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0313495285424702</v>
+        <v>0.1358163989139327</v>
       </c>
       <c r="C56">
-        <v>0.03754998716643355</v>
+        <v>-0.1080777905624104</v>
       </c>
       <c r="D56">
-        <v>0.156067122276867</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01243338682364721</v>
+      </c>
+      <c r="E56">
+        <v>0.03192644369670868</v>
+      </c>
+      <c r="F56">
+        <v>-0.08231756902117274</v>
+      </c>
+      <c r="G56">
+        <v>0.04217219079147483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02169519544845534</v>
+        <v>0.005703761411894851</v>
       </c>
       <c r="C57">
-        <v>-0.009839709332730083</v>
+        <v>-0.00643649498088906</v>
       </c>
       <c r="D57">
-        <v>0.03231695125893051</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02285184880842721</v>
+      </c>
+      <c r="E57">
+        <v>-0.02503527879194192</v>
+      </c>
+      <c r="F57">
+        <v>0.008779015297372463</v>
+      </c>
+      <c r="G57">
+        <v>0.02405593570838971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01887225603176588</v>
+        <v>0.05328297656087646</v>
       </c>
       <c r="C58">
-        <v>0.01673332321204293</v>
+        <v>-0.04358947065083069</v>
       </c>
       <c r="D58">
-        <v>0.1307820277525361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01966503704764927</v>
+      </c>
+      <c r="E58">
+        <v>-0.9160987255515468</v>
+      </c>
+      <c r="F58">
+        <v>-0.2560369033903421</v>
+      </c>
+      <c r="G58">
+        <v>-0.2314600518518979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1861286846986009</v>
+        <v>0.1603165722798603</v>
       </c>
       <c r="C59">
-        <v>0.1959708222335768</v>
+        <v>0.2052115308762553</v>
       </c>
       <c r="D59">
-        <v>-0.1042040573845746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01173675354481699</v>
+      </c>
+      <c r="E59">
+        <v>-0.01821890337482571</v>
+      </c>
+      <c r="F59">
+        <v>-0.002836608832178894</v>
+      </c>
+      <c r="G59">
+        <v>0.04161514223269382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1550842550551633</v>
+        <v>0.2888644538154</v>
       </c>
       <c r="C60">
-        <v>0.134618992817381</v>
+        <v>-0.1092398509571168</v>
       </c>
       <c r="D60">
-        <v>0.1497083752420891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01173881715851726</v>
+      </c>
+      <c r="E60">
+        <v>0.005641255484218699</v>
+      </c>
+      <c r="F60">
+        <v>0.3399321659992183</v>
+      </c>
+      <c r="G60">
+        <v>-0.1606863833694131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001229006819312785</v>
+        <v>0.03894277003915692</v>
       </c>
       <c r="C61">
-        <v>-0.003922609163389252</v>
+        <v>-0.06568052488917919</v>
       </c>
       <c r="D61">
-        <v>0.07480554767816373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005545079690906312</v>
+      </c>
+      <c r="E61">
+        <v>-0.02394874110320018</v>
+      </c>
+      <c r="F61">
+        <v>0.01304159131639594</v>
+      </c>
+      <c r="G61">
+        <v>0.09622493837801648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00684219833575633</v>
+        <v>0.01605839713934758</v>
       </c>
       <c r="C63">
-        <v>-0.003516780095468613</v>
+        <v>-0.03063335108189506</v>
       </c>
       <c r="D63">
-        <v>0.0256401014342088</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008430593795974545</v>
+      </c>
+      <c r="E63">
+        <v>-0.003784075084776447</v>
+      </c>
+      <c r="F63">
+        <v>-0.01806853144135975</v>
+      </c>
+      <c r="G63">
+        <v>0.09191036830013521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02413695054020726</v>
+        <v>0.04913082852139995</v>
       </c>
       <c r="C64">
-        <v>0.01716169163703419</v>
+        <v>-0.04744681968901906</v>
       </c>
       <c r="D64">
-        <v>0.06137688192924239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006575137467995274</v>
+      </c>
+      <c r="E64">
+        <v>-0.007990142542068779</v>
+      </c>
+      <c r="F64">
+        <v>0.009014213922614464</v>
+      </c>
+      <c r="G64">
+        <v>0.1029888404880484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02871463668609044</v>
+        <v>0.07543926536322604</v>
       </c>
       <c r="C65">
-        <v>0.004133011991818008</v>
+        <v>-0.05792464806252193</v>
       </c>
       <c r="D65">
-        <v>0.1172405936829469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01664767627277992</v>
+      </c>
+      <c r="E65">
+        <v>-0.0392368628183612</v>
+      </c>
+      <c r="F65">
+        <v>0.0273981583336727</v>
+      </c>
+      <c r="G65">
+        <v>0.04359153275737862</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.008226866642430046</v>
+        <v>0.05097980050408848</v>
       </c>
       <c r="C66">
-        <v>-0.02220364193303469</v>
+        <v>-0.1068335696856019</v>
       </c>
       <c r="D66">
-        <v>0.1353658751171073</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01173927977201009</v>
+      </c>
+      <c r="E66">
+        <v>-0.04080170206891953</v>
+      </c>
+      <c r="F66">
+        <v>0.03365992590890372</v>
+      </c>
+      <c r="G66">
+        <v>0.1045999309477548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.02721811246372831</v>
+        <v>0.05394364578598742</v>
       </c>
       <c r="C67">
-        <v>0.03437065334343604</v>
+        <v>-0.0338916266621142</v>
       </c>
       <c r="D67">
-        <v>0.05965622226086528</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005883507489659503</v>
+      </c>
+      <c r="E67">
+        <v>0.00132759106360318</v>
+      </c>
+      <c r="F67">
+        <v>-0.0179142538899426</v>
+      </c>
+      <c r="G67">
+        <v>0.07471477819477781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1942906965676606</v>
+        <v>0.1557103666245446</v>
       </c>
       <c r="C68">
-        <v>0.1775824117245694</v>
+        <v>0.269129559731774</v>
       </c>
       <c r="D68">
-        <v>-0.1565525959610743</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005370916852079295</v>
+      </c>
+      <c r="E68">
+        <v>-0.01224638570121344</v>
+      </c>
+      <c r="F68">
+        <v>-0.03741088574959821</v>
+      </c>
+      <c r="G68">
+        <v>0.03017883432075832</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02280760642244431</v>
+        <v>0.08278732118053485</v>
       </c>
       <c r="C69">
-        <v>0.0317780342308459</v>
+        <v>-0.07028634912443026</v>
       </c>
       <c r="D69">
-        <v>0.07860643930246487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008875823253239577</v>
+      </c>
+      <c r="E69">
+        <v>0.02012007917658569</v>
+      </c>
+      <c r="F69">
+        <v>-0.03896762960381402</v>
+      </c>
+      <c r="G69">
+        <v>0.1014943444455447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1580131423157564</v>
+        <v>0.1414241036087413</v>
       </c>
       <c r="C71">
-        <v>0.1537774056557986</v>
+        <v>0.2303498060783848</v>
       </c>
       <c r="D71">
-        <v>-0.109579291823153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.00322634472673072</v>
+      </c>
+      <c r="E71">
+        <v>-0.03212466200748497</v>
+      </c>
+      <c r="F71">
+        <v>-0.02551115145375375</v>
+      </c>
+      <c r="G71">
+        <v>0.07166286126835691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.008508130875743352</v>
+        <v>0.08453666675307889</v>
       </c>
       <c r="C72">
-        <v>0.01656404052573836</v>
+        <v>-0.06897211453348921</v>
       </c>
       <c r="D72">
-        <v>0.1060806109958931</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008181934975838195</v>
+      </c>
+      <c r="E72">
+        <v>0.008767154867489309</v>
+      </c>
+      <c r="F72">
+        <v>0.03588721849371076</v>
+      </c>
+      <c r="G72">
+        <v>0.08697417738817304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1887496831714785</v>
+        <v>0.3774203263200667</v>
       </c>
       <c r="C73">
-        <v>0.1553037788317023</v>
+        <v>-0.1179053218878983</v>
       </c>
       <c r="D73">
-        <v>0.2786230660442321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02091493461413019</v>
+      </c>
+      <c r="E73">
+        <v>-0.06991522519318201</v>
+      </c>
+      <c r="F73">
+        <v>0.584256223019015</v>
+      </c>
+      <c r="G73">
+        <v>-0.2880603092276902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.03140648876915592</v>
+        <v>0.1045765076656956</v>
       </c>
       <c r="C74">
-        <v>0.03975622909623003</v>
+        <v>-0.1098224363707878</v>
       </c>
       <c r="D74">
-        <v>0.171954486235957</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009441955960025804</v>
+      </c>
+      <c r="E74">
+        <v>0.007015125973207711</v>
+      </c>
+      <c r="F74">
+        <v>-0.06996284702778235</v>
+      </c>
+      <c r="G74">
+        <v>0.08180172120086338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.08226906153048132</v>
+        <v>0.2468155742147742</v>
       </c>
       <c r="C75">
-        <v>0.09805275387970085</v>
+        <v>-0.1534888347077719</v>
       </c>
       <c r="D75">
-        <v>0.307074416109814</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03071553490024997</v>
+      </c>
+      <c r="E75">
+        <v>0.06547465206254159</v>
+      </c>
+      <c r="F75">
+        <v>-0.1678873767203447</v>
+      </c>
+      <c r="G75">
+        <v>-0.02149788805712117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.03836570728777891</v>
+        <v>0.1182866299203161</v>
       </c>
       <c r="C76">
-        <v>0.05487545609386476</v>
+        <v>-0.1094704687434181</v>
       </c>
       <c r="D76">
-        <v>0.2081644641100341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01788903542181716</v>
+      </c>
+      <c r="E76">
+        <v>0.02445139021872174</v>
+      </c>
+      <c r="F76">
+        <v>-0.1048495098689855</v>
+      </c>
+      <c r="G76">
+        <v>0.0599258824965313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01726858434178452</v>
+        <v>0.07102399984402495</v>
       </c>
       <c r="C77">
-        <v>0.002753348698108038</v>
+        <v>-0.06103521349735076</v>
       </c>
       <c r="D77">
-        <v>0.08333155841556938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01040202733225862</v>
+      </c>
+      <c r="E77">
+        <v>-0.04944560455844922</v>
+      </c>
+      <c r="F77">
+        <v>0.01404439675861721</v>
+      </c>
+      <c r="G77">
+        <v>0.06297270905510365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006506482462488544</v>
+        <v>0.04261113963588548</v>
       </c>
       <c r="C78">
-        <v>0.0008773323254007185</v>
+        <v>-0.04979678925766873</v>
       </c>
       <c r="D78">
-        <v>0.06629161339649771</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005836804089256372</v>
+      </c>
+      <c r="E78">
+        <v>-0.027754545783675</v>
+      </c>
+      <c r="F78">
+        <v>0.03552620425370909</v>
+      </c>
+      <c r="G78">
+        <v>0.1029781876794061</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>7.431776191843991e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003354459271453775</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>3.115439826354769e-07</v>
+      </c>
+      <c r="E79">
+        <v>-0.0009241006048273676</v>
+      </c>
+      <c r="F79">
+        <v>0.0007338230101488431</v>
+      </c>
+      <c r="G79">
+        <v>-0.001187475001833687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03074856444478934</v>
+        <v>0.04314291146551083</v>
       </c>
       <c r="C80">
-        <v>0.01443260494290789</v>
+        <v>-0.05114405016512286</v>
       </c>
       <c r="D80">
-        <v>0.08196663334741126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01321709569883367</v>
+      </c>
+      <c r="E80">
+        <v>-0.0259368597799362</v>
+      </c>
+      <c r="F80">
+        <v>0.01050544357230329</v>
+      </c>
+      <c r="G80">
+        <v>0.05462605571580172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.04946555345711612</v>
+        <v>0.1368015715608921</v>
       </c>
       <c r="C81">
-        <v>0.05755748726836139</v>
+        <v>-0.09604597030187328</v>
       </c>
       <c r="D81">
-        <v>0.1681218103340471</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01464455433902242</v>
+      </c>
+      <c r="E81">
+        <v>0.03128502670704338</v>
+      </c>
+      <c r="F81">
+        <v>-0.1262100080814039</v>
+      </c>
+      <c r="G81">
+        <v>0.02157610895313376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1339463090431168</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0815037255185149</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00951003407697487</v>
+      </c>
+      <c r="E82">
+        <v>0.09993770905320098</v>
+      </c>
+      <c r="F82">
+        <v>-0.05211633173689315</v>
+      </c>
+      <c r="G82">
+        <v>0.06166823900606939</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01445267422559669</v>
+        <v>0.03622550400739951</v>
       </c>
       <c r="C83">
-        <v>0.008906426941033791</v>
+        <v>-0.02846783138002214</v>
       </c>
       <c r="D83">
-        <v>0.02822195296187515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006022987435480795</v>
+      </c>
+      <c r="E83">
+        <v>-0.03006564537025222</v>
+      </c>
+      <c r="F83">
+        <v>0.02941936620997809</v>
+      </c>
+      <c r="G83">
+        <v>0.06322301983556344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.07411694817205752</v>
+        <v>0.2110819849885352</v>
       </c>
       <c r="C85">
-        <v>0.07243284278209995</v>
+        <v>-0.1481608736367436</v>
       </c>
       <c r="D85">
-        <v>0.2770442781707826</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01673477864917692</v>
+      </c>
+      <c r="E85">
+        <v>0.09975699068378209</v>
+      </c>
+      <c r="F85">
+        <v>-0.1215754575322464</v>
+      </c>
+      <c r="G85">
+        <v>-0.062751605184437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01607421136362584</v>
+        <v>0.01406857386687589</v>
       </c>
       <c r="C86">
-        <v>0.009413391450644544</v>
+        <v>-0.02456076906185933</v>
       </c>
       <c r="D86">
-        <v>0.04258077499686872</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0113563491230355</v>
+      </c>
+      <c r="E86">
+        <v>-0.05146274357409988</v>
+      </c>
+      <c r="F86">
+        <v>0.01750931238558616</v>
+      </c>
+      <c r="G86">
+        <v>0.1921817525557055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0005665558870697946</v>
+        <v>0.02119632603976465</v>
       </c>
       <c r="C87">
-        <v>-0.0119379610198253</v>
+        <v>-0.02074437819812575</v>
       </c>
       <c r="D87">
-        <v>0.03924244213451802</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01201451179146055</v>
+      </c>
+      <c r="E87">
+        <v>-0.09517252078632488</v>
+      </c>
+      <c r="F87">
+        <v>0.008686267136679488</v>
+      </c>
+      <c r="G87">
+        <v>0.1231381216462153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04430224118230472</v>
+        <v>0.09389479824706762</v>
       </c>
       <c r="C88">
-        <v>0.01236626585245526</v>
+        <v>-0.06903681052724252</v>
       </c>
       <c r="D88">
-        <v>0.04917443352241735</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02230058526704714</v>
+      </c>
+      <c r="E88">
+        <v>0.003723128136612859</v>
+      </c>
+      <c r="F88">
+        <v>-0.02230522422070253</v>
+      </c>
+      <c r="G88">
+        <v>0.1023088854655869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2900631657664518</v>
+        <v>0.2333198654726424</v>
       </c>
       <c r="C89">
-        <v>0.2777749126202321</v>
+        <v>0.3680758985042207</v>
       </c>
       <c r="D89">
-        <v>-0.1901848461935976</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004883392332683419</v>
+      </c>
+      <c r="E89">
+        <v>0.01876054722004314</v>
+      </c>
+      <c r="F89">
+        <v>-0.02695258683278091</v>
+      </c>
+      <c r="G89">
+        <v>0.07004929510240847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2366787343440676</v>
+        <v>0.2081798507409814</v>
       </c>
       <c r="C90">
-        <v>0.2313156322387692</v>
+        <v>0.3163106729390893</v>
       </c>
       <c r="D90">
-        <v>-0.172506163655319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.00482827647483089</v>
+      </c>
+      <c r="E90">
+        <v>-0.001131113102310246</v>
+      </c>
+      <c r="F90">
+        <v>-0.04850799521702331</v>
+      </c>
+      <c r="G90">
+        <v>0.04303267991518121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07125860733346834</v>
+        <v>0.1841989856332405</v>
       </c>
       <c r="C91">
-        <v>0.08797165422169913</v>
+        <v>-0.1418698374870502</v>
       </c>
       <c r="D91">
-        <v>0.2301159022935136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02177208161693218</v>
+      </c>
+      <c r="E91">
+        <v>0.06116221654370971</v>
+      </c>
+      <c r="F91">
+        <v>-0.142407848923703</v>
+      </c>
+      <c r="G91">
+        <v>0.03418479296462221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.194216591733515</v>
+        <v>0.199921162211835</v>
       </c>
       <c r="C92">
-        <v>0.2317380455011545</v>
+        <v>0.2566346662642013</v>
       </c>
       <c r="D92">
-        <v>-0.0763697596889043</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03834376309954397</v>
+      </c>
+      <c r="E92">
+        <v>-0.04255259206214662</v>
+      </c>
+      <c r="F92">
+        <v>-0.05984543990280626</v>
+      </c>
+      <c r="G92">
+        <v>0.1123582239412168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2485769975842455</v>
+        <v>0.2317516815264055</v>
       </c>
       <c r="C93">
-        <v>0.2500745593587712</v>
+        <v>0.3128718972178138</v>
       </c>
       <c r="D93">
-        <v>-0.1415421351408881</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01156849777508547</v>
+      </c>
+      <c r="E93">
+        <v>-0.004234679302140478</v>
+      </c>
+      <c r="F93">
+        <v>-0.04338090486870453</v>
+      </c>
+      <c r="G93">
+        <v>0.05895120514598429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1205369776648755</v>
+        <v>0.3183140423229034</v>
       </c>
       <c r="C94">
-        <v>0.1092677386771036</v>
+        <v>-0.1803803774590327</v>
       </c>
       <c r="D94">
-        <v>0.3005068226143862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01844533729250768</v>
+      </c>
+      <c r="E94">
+        <v>0.2083642154759065</v>
+      </c>
+      <c r="F94">
+        <v>-0.4805434229420341</v>
+      </c>
+      <c r="G94">
+        <v>-0.4152892586446248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0027618995895585</v>
+        <v>0.1005293209198283</v>
       </c>
       <c r="C95">
-        <v>0.006547697683627199</v>
+        <v>-0.08797617382076399</v>
       </c>
       <c r="D95">
-        <v>0.1203670273977766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009985479786107471</v>
+      </c>
+      <c r="E95">
+        <v>-0.08453446372772939</v>
+      </c>
+      <c r="F95">
+        <v>0.1860570022846025</v>
+      </c>
+      <c r="G95">
+        <v>0.01195960413590846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1068660388271085</v>
+        <v>0.1955023866764723</v>
       </c>
       <c r="C98">
-        <v>0.1253273882823021</v>
+        <v>-0.04528873700867547</v>
       </c>
       <c r="D98">
-        <v>0.1276012547797789</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01350102679942845</v>
+      </c>
+      <c r="E98">
+        <v>-0.06682375110457597</v>
+      </c>
+      <c r="F98">
+        <v>0.2393826495972243</v>
+      </c>
+      <c r="G98">
+        <v>-0.02579507890614763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009943915459287456</v>
+        <v>0.008573063653807602</v>
       </c>
       <c r="C101">
-        <v>0.001127351246560881</v>
+        <v>-0.02262927441089158</v>
       </c>
       <c r="D101">
-        <v>0.01938868338615308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00912936654452263</v>
+      </c>
+      <c r="E101">
+        <v>-0.005391372070056637</v>
+      </c>
+      <c r="F101">
+        <v>-0.01612014338278032</v>
+      </c>
+      <c r="G101">
+        <v>0.09615155076370155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.04727082606887117</v>
+        <v>0.1154232307438767</v>
       </c>
       <c r="C102">
-        <v>0.03671354850337057</v>
+        <v>-0.08421024904281675</v>
       </c>
       <c r="D102">
-        <v>0.1357783741398743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008194339889559998</v>
+      </c>
+      <c r="E102">
+        <v>0.03520728965801705</v>
+      </c>
+      <c r="F102">
+        <v>-0.04279294891404403</v>
+      </c>
+      <c r="G102">
+        <v>0.01125360897707357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.700225690901246</v>
+        <v>0.02128289081359861</v>
       </c>
       <c r="C104">
-        <v>-0.7009346299148181</v>
+        <v>0.03053147410354994</v>
       </c>
       <c r="D104">
-        <v>-0.03336043426455335</v>
+        <v>-0.9879189643254233</v>
+      </c>
+      <c r="E104">
+        <v>0.04755014771264834</v>
+      </c>
+      <c r="F104">
+        <v>-0.03522135942521076</v>
+      </c>
+      <c r="G104">
+        <v>-0.03994703726360015</v>
       </c>
     </row>
   </sheetData>
